--- a/manuscript/appendixA.xlsx
+++ b/manuscript/appendixA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="23040" windowHeight="7068"/>
+    <workbookView xWindow="1872" yWindow="0" windowWidth="23040" windowHeight="7068"/>
   </bookViews>
   <sheets>
     <sheet name="sp_tol_refs" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="215">
   <si>
     <t>Sci_Name</t>
   </si>
@@ -293,42 +293,6 @@
     <t>RULE</t>
   </si>
   <si>
-    <t>NEMESIS SAYS 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEMESIS SAYS 13. THIS WOULDN’T MATTER FOR OUR RESULTS SO WE CAN CHANGE IF WE NEED TO </t>
-  </si>
-  <si>
-    <t>NEMESIS SAYS 54</t>
-  </si>
-  <si>
-    <t>NEMESIS SAYS -1.8?</t>
-  </si>
-  <si>
-    <t>NEMESIS SAYS 35</t>
-  </si>
-  <si>
-    <t>nemesis says 40</t>
-  </si>
-  <si>
-    <t>nemesis says 15 - 40 but cites optimum growth 20-30</t>
-  </si>
-  <si>
-    <t>NEMESIS SAYS 5</t>
-  </si>
-  <si>
-    <t>NEMESIS SAYS 20</t>
-  </si>
-  <si>
-    <t>NEMESIS SAYS 22.5</t>
-  </si>
-  <si>
-    <t>NEMESIS SAYS 30</t>
-  </si>
-  <si>
-    <t>nemesis says 0</t>
-  </si>
-  <si>
     <t>nemesis</t>
   </si>
   <si>
@@ -341,18 +305,6 @@
     <t>rule</t>
   </si>
   <si>
-    <t>nemsis says 3.7; either way doesn't matter</t>
-  </si>
-  <si>
-    <t>nemesis says 36.5</t>
-  </si>
-  <si>
-    <t>nemesis says 12.5 but shouldn't matter</t>
-  </si>
-  <si>
-    <t>nemesis says 30</t>
-  </si>
-  <si>
     <t>Neves and Depres 1978</t>
   </si>
   <si>
@@ -437,21 +389,12 @@
     <t>Turcotte and Sainte-Marie 2009</t>
   </si>
   <si>
-    <t>CABI 2017</t>
-  </si>
-  <si>
     <t>Maximum survival temperature and minimum salinity are absolute values from Greene et al. 2009 Table 2-3. Maximum reproductive salinity is for larval tolerance to saltwater: "In the Shubenacadie River, Canada, eggs and larvae were most often observed in areas with a salinity of 0 ppt (range 0 to 7.6 ppt). Additionally, while larvae may tolerate salinities as high as 15 ppt, these conditions often result in death" (Green et al. 2009, p. 19)</t>
   </si>
   <si>
     <t>For minimum reproductive temperature: While larvae can tolerate temperatures as low as 5°C, juvenile colonies grown under laboratory conditions required temperatures between 15-25°C to grow (Epelbaum et al. 2009)</t>
   </si>
   <si>
-    <t>NIMPIS. 2016. Botryllus schlosseri general information. National Introduced Marine Pest Information System. Available from: http://www.marinepests.gov.au/Pages/default.aspx Accessed 22-Dec-2016.</t>
-  </si>
-  <si>
-    <t>CABI. 2017. Invasive Species Compendium. CAB International, Wallingford, UK. Available from: http://www.cabi.org/isc. Accessed: 30-Jan-2017.</t>
-  </si>
-  <si>
     <t>Tyler-Walters and Pizzolla 2007</t>
   </si>
   <si>
@@ -465,13 +408,294 @@
   </si>
   <si>
     <t>Arndt, E. A. 1989. Ecological, physiological and historical aspects of brackish water fauna distribution. In: Ryland, J.S., and Tyler, P.A., eds. Reproduction, Genetics and Distributions of Marine Organisms: 23rd European Marine Biology Symposium. Olsen &amp; Olsen, Fredensborg, DNK.</t>
+  </si>
+  <si>
+    <t>SWIMS 2017</t>
+  </si>
+  <si>
+    <t>Zhao 2002</t>
+  </si>
+  <si>
+    <t>Zhao 2002; see notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zhao (2002) found that larvae metamorphosed when reared at temperature treatments of 20⁰C, 25⁰C, and 30⁰C. Larvae did not metamorphose at 15⁰C. Given uncertainity about what happens at temperatures between 15-20⁰C, we chose a lower reproductive threshold of 16⁰C. </t>
+  </si>
+  <si>
+    <t>SWIMS. 2017. Crepidula onyx. Non-native marine species in Hong Kong. Swire Institute of Marine Science. Available from: http://www.swims.hku.hk/nonnative%20webpage/crepidula.dwt Accessed 23-Feb-2017.</t>
+  </si>
+  <si>
+    <t>Zhao, B. 2002. Larval biology and ecology of a non-indigenous species, the slipper limpet Crepidula onyx. PhD thesis, Hong Kong University of Science and Technology, Hong Kong.</t>
+  </si>
+  <si>
+    <t>Shick and Lamb 1977</t>
+  </si>
+  <si>
+    <t>Podbielski et al. 2016</t>
+  </si>
+  <si>
+    <t>In its introduced range, this species is only known to reproduce asexually.  Temperature requirements for asexual reproduction are unknown. Asexual reproduction stopped at salinities below 7 ppt. Although upper salinity thresholds are unknown, D. lineata is a marine species that does not require freshwater to reproduce. We therefore assume that this species can reproduce in saltwater up to 35 ppt.</t>
+  </si>
+  <si>
+    <t>Shick, J. M., and A. N. Lamb. 1977. Asexual reproduction and genetic population structure in the colonizing sea anemone Haliplanella luciae. Biological Bulletin 153(3):604-617.</t>
+  </si>
+  <si>
+    <t>Podbielski, I., Bock, C., Lenz, M., and F. Melzner. 2016. Using the critical salinity (Scrit) concept to predict invasion potential of the anemone Diadumene lineata in the Baltic Sea. Marine Biology 163(11):1-15.</t>
+  </si>
+  <si>
+    <t>NIMPIS. 2016. National Introduced Marine Pest Information System. Department of Agriculture, Commonwealth of Australia. Available from: http://www.marinepests.gov.au/Pages/default.aspx Accessed 22-Dec-2016.</t>
+  </si>
+  <si>
+    <t>NEMESIS; NIMPIS 2016</t>
+  </si>
+  <si>
+    <t>Zerebecki, R. A., and C. J. B. Sorte. 2011. Temperature tolerance and stress proteins as mechanisms of invasive species success. PLoS ONE 6:e14806.</t>
+  </si>
+  <si>
+    <t>Yamashita et al. 2003</t>
+  </si>
+  <si>
+    <t>Reproductive salinity requirements are unknown. Because this is a marine species that is not known to reproduce in fresh/brackish water, we assume that this species can reproduce in seawater (31 ppt) up to its maximum survival salinity limit (34 ppt).</t>
+  </si>
+  <si>
+    <t>ASSUME SAME AS SURVIVAL SAL.</t>
+  </si>
+  <si>
+    <t>Yamashita, K., Kawaii, S. Nakai, M., and N. Fusetani. 2003. Larval behavioral, morphological changes, and nematocyte dynamics during settlement of actinulae of Tubularia mesembryanthemum, Allman 1871 (Hydrozoa: Tubulariidae). Biological Bulletin 204:256-269.</t>
+  </si>
+  <si>
+    <t>EOL 2016</t>
+  </si>
+  <si>
+    <t>Encyclopedia of Life. 2016. Molgula citrina; Sea grapes. Available from: http://www.eol.org/pages/514008/details Accessed 20-Oct-2017.</t>
+  </si>
+  <si>
+    <t>SERC and KBERR n.d.</t>
+  </si>
+  <si>
+    <t>SERC and KBERR. n.d. Guide to some common fouling invertebrates of Alaska with focus on known and potential invaders. Unpublished report by the Smithsonian Environmental Research Center and the Kachemak Bay Research Reserve. Available online: https://platewatch.nisbase.org/pages/fieldguide</t>
+  </si>
+  <si>
+    <t>SERC and KBERR n.d.; EOL 2016</t>
+  </si>
+  <si>
+    <t>See notes. Min temperature likely colder - more like 3?</t>
+  </si>
+  <si>
+    <t>Survival temperature thresholds are unknown. This species has been reported as far north as Bergen, Norway (61.3°N), where water temperatures average 5°C to 18°C (IMR 2017). Reproductive salinity requirements are unknown. Because this is a marine species that is not known to reproduce in fresh/brackish water, we assume that this species can reproduce in seawater (31 to 35 ppt)</t>
+  </si>
+  <si>
+    <t>Möller 1986</t>
+  </si>
+  <si>
+    <t>Möller, P. 1986. Physical factors and biological interactions regulating infauna in shallow boreal areas. Marine Ecology Progress Series. 30:33-47.</t>
+  </si>
+  <si>
+    <t>DAFF 2016</t>
+  </si>
+  <si>
+    <t>DAFF. 2016. Mediterranean mussel Mytilus galloprovincialis Fact Sheet. Department of Agriculture, Forestry and Fisheries, Pretoria, ZAF. Available from: https://www.daff.gov.za/daffweb3/Branches/Fisheries-Management/Aquaculture-and-Economic-Development/aaquaculture-sustainable-management/Biodiversity Accessed 20-Oct-2017.</t>
+  </si>
+  <si>
+    <t>His et al. 1989</t>
+  </si>
+  <si>
+    <t>His, E., Robert, R., and A. Dinet. 1989. Combined effects of temperature and salinity on fed and starved larvae of the mediterranean mussel Mytilus galloprovincialis and the Japanese oyster Crassostrea gigas. Marine Biology 100(4):455-463.</t>
+  </si>
+  <si>
+    <t>Hand, C., and K. R. Uhlinger. 1994. The unique, widely distributed, estuarine sea anemone, Nematostella vectensis Stephenson: A review, new facts and questions. Estuaries 17(2):501-508.</t>
+  </si>
+  <si>
+    <t>Hand and Uhlinger 1994</t>
+  </si>
+  <si>
+    <t>Ashelby 2011</t>
+  </si>
+  <si>
+    <t>Lejeusne et al. 2014</t>
+  </si>
+  <si>
+    <t>Ashelby, C. 2011. Palaemon macrodactylus. CABI Invasive Species Compendium. CAB International, Wallingford, UK. Available from: https://www.cabi.org/isc/datasheet/109150 Accessed 06-Dec-2016.</t>
+  </si>
+  <si>
+    <t>Lejeusne, C., Latchere, O., Petit, N., Rico, C., and A. J. Green. 2014. Do invaders always perform better? Comparing the response of native and invasive shrimps to temperature and salinity gradients in southwest Spain. Estuarine, Coastal and Shelf Science 136: 102e111.</t>
+  </si>
+  <si>
+    <t>Grey 2009</t>
+  </si>
+  <si>
+    <t>Grey, E. 2009. CABI Invasive Species Compendium. CAB International, Wallingford, UK. Available from: https://www.cabi.org/ISC/datasheet/88554 Accessed: 30-Jan-2017.</t>
+  </si>
+  <si>
+    <t>NERACOOS 2016</t>
+  </si>
+  <si>
+    <t>NOAA 2017</t>
+  </si>
+  <si>
+    <t>NERACOOS 2016; see notes</t>
+  </si>
+  <si>
+    <t>NOAA 2017; see notes</t>
+  </si>
+  <si>
+    <t>High uncertainity for survival temperatures. Thresholds are based on geographic distribution, which may not represent physiological tolerances.</t>
+  </si>
+  <si>
+    <t>NERACOOS. 2016. Historic average monthly water temperature for Penobscot Bay, Jan to Dec 2016. Northeastern Regional Association of Coastal Ocean Observing Systems. Available from: http://www.neracoos.org/ Accessed 22-Feb-2016.</t>
+  </si>
+  <si>
+    <t>NOAA. 2017. Historical data for Station IRDT2 - 8776139 - South Bird Island, TX. National Data Buoy Center, National Weather Service, National Oceanic and Atmospheric Administration. Available from: http://www.ndbc.noaa.gov/ Accessed 22-Feb-2017.</t>
+  </si>
+  <si>
+    <t>Salinity tolerances are unknown, but this species is found in San Pablo Bay where salinities as low as 18 ppt have been recorded (NEMESIS). We assume that this species can tolerate seawater salinities up to 35 ppt.</t>
+  </si>
+  <si>
+    <t>Holm et al. 2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimal spawning temperatures are from 7.2°C to 10°C. While spawning can likely take place within a broader temperature range, input values will not affect final model result, since the Atlantic salmon requires freshwater to spawn and such conditions are not found in the Bering Sea. </t>
+  </si>
+  <si>
+    <t>Fuller et al. 2018</t>
+  </si>
+  <si>
+    <r>
+      <t>Fuller, P., M. Neilson, K. Dettloff, A. Fusaro, and R. Sturtevant. 2018. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Salmo salar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Linnaeus, 1758. Nonindigenous Aquatic Species Database, U.S. Geological Survey, Gainesville, FL, USA. Available online: https://nas.er.usgs.gov/queries/FactSheet.aspx?SpeciesID=926, Accessed: 20-Oct-2018 </t>
+    </r>
+  </si>
+  <si>
+    <t>Fuller et al. 2018; see notes</t>
+  </si>
+  <si>
+    <t>Holm, M., Holst, J. C., and L. P. Hansen. 2000. Spatial and temporal distribution of post-smolts of Atlantic salmon (Salmo salar L.) in the Norwegian Sea and adjacent areas. ICES Journal of Marine Science 57:955-964.</t>
+  </si>
+  <si>
+    <t>Wood 2016</t>
+  </si>
+  <si>
+    <t>Wood, C. 2016. Orange ripple bryozoan, Schizoporella japonica. Great Britain Non-native Species Information Portal, Non Native Species Secretariat, Department for Environment Food &amp; Rural Affairs, the Scottish Government, and the Welsh Assembly Government. Available from: http://www.nonnativespecies.org Accessed 16-Feb-2017.</t>
+  </si>
+  <si>
+    <t>Powell et al. 1970</t>
+  </si>
+  <si>
+    <t>Powell et al. 1970; Nall et al. 2015; see notes</t>
+  </si>
+  <si>
+    <t>Hines and Ruiz 2000; see note</t>
+  </si>
+  <si>
+    <t>For survival salinity thresholds: Can tolerate brackish waters &gt; 15 ppt (Powell et al. 1970). In Scotland, S. japonica was not found in harbors near freshwater outflow with salinities &lt; 10 ppt (Nall et al. 2015). This species has been found in the Gulf of Alaska (Hines and Ruiz 2000). We therefore assume that it can tolerate seawater salinities up to 35 ppt. Reproductive salinity requirements are unknown. Because this is a marine species that is not known to reproduce in fresh/brackish water, we assume that this species can reproduce in seawater (31 to 35 ppt).</t>
+  </si>
+  <si>
+    <t>Powell, N. A., Sayce, C. S., and D. F. Tufts. 1970. Hyperplasia in an estuarine bryozoan attributable to coal tar derivatives. Journal of the Fisheries Research Board of Canada 27:2095-2096.</t>
+  </si>
+  <si>
+    <t>Nall, C. R., Guerin, A. J., and E. J. Cook. 2015. Rapid assessment of marine non-native species in northern Scotland and a synthesis of existing Scottish records. Aquatic Invasions 10(1):107-121.</t>
+  </si>
+  <si>
+    <t>Nall et al. 2015</t>
+  </si>
+  <si>
+    <t>Hines, A. H., and G. M. Ruiz. 2000. Biological invasions of cold-water coastal ecosystems: Ballast-mediated introductions in Port Valdez/Prince William Sound, Alaska. Prepared for the Prince William Sound Regional Citizen's Council, Valdez, AK, U.S.A. 340 pp.</t>
+  </si>
+  <si>
+    <t>Hines and Ruiz 2000</t>
+  </si>
+  <si>
+    <t>Davis and Davis 2007</t>
+  </si>
+  <si>
+    <t>Davis and Davis 2007; see note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In a survey of 260 European harbours, no specimens were found in water with salinity ˂20 PSU or ˃35 PSU (Davis and Davis 2007). A previous study suggested that larvae metamorphose at salinities between 20 and 32 (Kashenko 1996, qtd. in Davis and Davis 2007). We assume that this species can tolerate seawater up to 35 ppt. </t>
+  </si>
+  <si>
+    <t>Davis, M. H., and M. E. Davis. 2007. The distribution of Styela clava (Tunicata, Ascidiacea) in European waters. Journal of Experimental Marine Biology and Ecology 342(1):182-184.</t>
+  </si>
+  <si>
+    <t>Boyd 2008</t>
+  </si>
+  <si>
+    <t>Boyd, S. G. 2008. An ecological assessment of the non-indigenous isopod, Synidotea laticauda, in Delaware bay. M.Sc. Thesis, Rutgers University, New Brunswick, NJ, U.S.A.</t>
+  </si>
+  <si>
+    <t>Dawirs et al. 1986; Hines et al. 2004; see note</t>
+  </si>
+  <si>
+    <t>Grosholz and Ruiz 2002</t>
+  </si>
+  <si>
+    <t>For reproductive temperatures: Reproduction has been reported in temperatures between 3 and 26°C (Grosholz and Ruiz 2002), but temperatures of at least 9°C are needed for larval survival (Dawirs et al. 1986; Hines et al. 2004). Upper reproductive salinity requirements are unknown. Because this is a marine species that is not known to reproduce in fresh/brackish water, we assume that this species can reproduce in seawater (up to 35 ppt).</t>
+  </si>
+  <si>
+    <t>Carrasco and Barón 2010</t>
+  </si>
+  <si>
+    <t>Carrasco, M. F., and P. J. Barón. 2010. Analysis of the potential geographic range of the Pacific oyster Crassostrea gigas (Thunberg, 1793) based on surface seawater temperature satellite data and climate charts: The coast of South America as a study case. Biological Invasions 12(8):2597-2607. doi: 10.1007/s10530-009-9668-0</t>
+  </si>
+  <si>
+    <t>Bourlès et al. 2009</t>
+  </si>
+  <si>
+    <t>Bourlès, Y., Alunno-Bruscia, M., Pouvreau, S. et al. 2009. Modelling growth and reproduction of the Pacific oyster Crassostrea gigas: Advances in the oyster-DEB model through application to a coastal pond. Journal of Sea Research 62:62-71. doi: 10.1016/j.seares.2009.03.002</t>
+  </si>
+  <si>
+    <t>Mann et al. 1991; see notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larvae are broadly tolerant of salinities between 15 and 40 ppt (Nell and Holliday 1988, qtd. In NEMESIS), but according to Mann et al. (1991), spawning is restricted to salinities between 10 and 30 ppt. Input values for reproductive salinity will not affect final model result since the Pacific oyster requires elevated water temperatures for spawning that are not found in the Bering Sea. </t>
+  </si>
+  <si>
+    <t>Mann et al. 1991</t>
+  </si>
+  <si>
+    <t>Mann, R., Burreson, E. M., and P. K. Baker. 1991. The decline of the Virginia oyster fishery in Chesapeake Bay: Considerations for introduction of a non-endemic species, Crassostrea gigas (Thunberg). Journal of Shellfish Research 10:379-388.</t>
+  </si>
+  <si>
+    <t>Nishizawa et al 2014; see notes</t>
+  </si>
+  <si>
+    <t>Survival temperature thresholds are unknown. Minimum temperature is based on lowest reproductive thresholds (Hanafia et al. 2006, qtd. in NEMESIS). While reproduction can take place in water temperatures as low as 5°C (Hanafia et al. 2006, qtd. in NEMESIS), experiments by Nishizawa et al. (2014) found that immature animals required temperatures of 18°C for metamorphosis.</t>
+  </si>
+  <si>
+    <t>NEMESIS; see notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RULES: </t>
+  </si>
+  <si>
+    <t>Cite as:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +830,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -789,12 +1021,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -802,12 +1028,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,33 +1192,27 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1007,8 +1221,8 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1331,16 +1545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:S50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
@@ -1348,6 +1562,8 @@
     <col min="7" max="7" width="10.88671875" customWidth="1"/>
     <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" customWidth="1"/>
     <col min="13" max="13" width="23.77734375" customWidth="1"/>
     <col min="15" max="15" width="19.33203125" customWidth="1"/>
     <col min="17" max="17" width="18.88671875" customWidth="1"/>
@@ -1359,7 +1575,7 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -1390,2244 +1606,2405 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:19" s="6" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="6">
+        <v>26</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="6">
+        <v>33</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="6">
+        <v>8</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L2" s="6">
+        <v>26</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="6">
+        <v>7.6</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="8">
+        <v>40</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="8">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="8">
+        <v>52</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="8">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="8">
+        <v>23</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="N3" s="8">
+        <v>20</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="8">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="2">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="2">
+        <v>40</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J4" s="2">
+        <v>10</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L4" s="2">
+        <v>30</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="2">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="2">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="2">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="2">
+        <v>33</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="2">
+        <v>29.3</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H6" s="2">
+        <v>38</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" s="2">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="2">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="12">
+      <c r="N6" s="2">
         <v>26</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="O6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2">
+        <v>30</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="2">
+        <v>11</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L7" s="2">
+        <v>999</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N7" s="2">
+        <v>25</v>
+      </c>
+      <c r="O7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F2" s="12">
-        <v>5</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="H2" s="12">
-        <v>33</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="J2" s="12">
-        <v>8</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="12">
-        <v>26</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="12">
-        <v>0</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="P2" s="12">
-        <v>7.6</v>
-      </c>
-      <c r="Q2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="R2" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="P7" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="5">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="2">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="2">
+        <v>40</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="L8" s="2">
+        <v>999</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="2">
+        <v>31</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="14">
+      <c r="H9" s="2">
         <v>40</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" s="14">
-        <v>10</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="14">
-        <v>52</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="J3" s="14">
-        <v>12</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="L3" s="14">
-        <v>23</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="N3" s="14">
+      <c r="I9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" s="2">
+        <v>4</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" s="2">
         <v>20</v>
       </c>
-      <c r="O3" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="P3" s="14">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="R3" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="11">
-        <v>-2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" s="6">
-        <v>38</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H4" s="6">
-        <v>40</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J4" s="6">
-        <v>10</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L4" s="6">
-        <v>30</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="6">
-        <v>2</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P4" s="6">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11">
-        <v>-2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="6">
-        <v>40</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="6">
-        <v>7</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H5" s="6">
-        <v>33</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="11">
-        <v>-0.6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D6" s="6">
-        <v>29.3</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="6">
-        <v>38</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J6" s="6">
-        <v>15</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="L6" s="6">
-        <v>25</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="N6" s="6">
-        <v>26</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="P6" s="6">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="M9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N9" s="2">
+        <v>31</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
         <v>-1</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="6">
-        <v>30</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" s="6">
-        <v>14</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H7" s="6">
-        <v>44</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J7" s="6">
-        <v>11</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L7" s="6">
-        <v>999</v>
-      </c>
-      <c r="M7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N7" s="6">
-        <v>25</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P7" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="11">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" s="6">
-        <v>30.6</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F8" s="6">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="6">
-        <v>40</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="6">
-        <v>7</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" s="6">
-        <v>999</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="6">
-        <v>31</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P8" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="11">
-        <v>-2</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="6">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="6">
-        <v>11</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="H9" s="6">
-        <v>40</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="C10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="2">
         <v>4</v>
       </c>
-      <c r="K9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="6">
-        <v>20</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N9" s="6">
-        <v>31</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P9" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="16">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="2">
         <v>54</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>87</v>
       </c>
       <c r="J10" s="2">
         <v>9</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10">
+        <v>199</v>
+      </c>
+      <c r="L10" s="2">
         <v>26</v>
       </c>
-      <c r="M10" s="1"/>
+      <c r="M10" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="N10" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P10" s="2">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="R10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="5">
         <v>-1.7</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="6">
+      <c r="C11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D11" s="2">
         <v>27</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="E11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="2">
         <v>24</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="6">
+      <c r="G11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="2">
         <v>37</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="I11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="2">
         <v>12</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="K11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="2">
         <v>25</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="N11" s="6">
+      <c r="M11" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N11" s="2">
         <v>31</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P11" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="7" t="s">
+      <c r="P11" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="10" t="s">
+      <c r="R11" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="6" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="12" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="5">
         <v>-10</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="6">
-        <v>35</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="C12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="2">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="2">
         <v>0</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H12" s="6">
-        <v>35</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2">
+        <v>35</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J12" s="2">
         <v>10</v>
       </c>
-      <c r="K12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="K12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="2">
         <v>28</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="N12" s="6">
+      <c r="M12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="N12" s="2">
         <v>0.2</v>
       </c>
-      <c r="O12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="O12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="P12" s="2">
         <v>27</v>
       </c>
-      <c r="Q12" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="Q12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="5">
         <v>-1.9</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>93</v>
+      <c r="C13" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="D13" s="2">
         <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F13">
+        <v>204</v>
+      </c>
+      <c r="F13" s="2">
         <v>5</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="2">
         <v>41</v>
       </c>
-      <c r="I13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13">
+      <c r="I13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="2">
         <v>16</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="L13">
+      <c r="K13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L13" s="2">
         <v>30</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="N13">
+      <c r="M13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13" s="2">
+        <v>10</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P13" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="2">
+        <v>16</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" s="2">
+        <v>999</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N14" s="2">
+        <v>15</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P14" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" s="2">
+        <v>27.5</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="2">
+        <v>7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H15" s="2">
+        <v>74</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="2">
+        <v>7</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" s="2">
+        <v>24</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="2">
+        <v>35</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="2">
         <v>20</v>
       </c>
-      <c r="O13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="P13">
+      <c r="M16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16" s="2">
+        <v>31</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5">
+        <v>-0.6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="2">
         <v>30</v>
       </c>
-      <c r="Q13" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="E17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="2">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="2">
         <v>40</v>
       </c>
-      <c r="B14" s="17">
-        <v>10</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="I17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="2">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="2">
+        <v>999</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="N17" s="2">
+        <v>31</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="2">
         <v>30</v>
       </c>
-      <c r="F14" s="1">
-        <v>10</v>
-      </c>
-      <c r="H14" s="1">
-        <v>45</v>
-      </c>
-      <c r="J14" s="1">
+      <c r="E18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="2">
+        <v>23</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="2">
+        <v>34</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="2">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="2">
+        <v>26</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="N18" s="2">
+        <v>31</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="2">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="2">
+        <v>35</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J19" s="2">
+        <v>12</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L19" s="2">
+        <v>18</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19" s="2">
         <v>15</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P19" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="2">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F20" s="2">
+        <v>18</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="2">
+        <v>42</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="2">
+        <v>31</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5">
+        <v>5</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="2">
         <v>999</v>
       </c>
-      <c r="N14" s="1">
-        <v>15</v>
-      </c>
-      <c r="P14" s="1">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="16">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D15">
-        <v>27.5</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15">
-        <v>74</v>
-      </c>
-      <c r="I15" t="s">
-        <v>87</v>
-      </c>
-      <c r="J15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15">
-        <v>8</v>
-      </c>
-      <c r="O15" s="1"/>
-      <c r="P15">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="1"/>
-      <c r="R15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
-      </c>
-      <c r="D16">
-        <v>24</v>
-      </c>
-      <c r="E16" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16">
-        <v>35</v>
-      </c>
-      <c r="I16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16">
-        <v>14</v>
-      </c>
-      <c r="K16" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-      <c r="M16" t="s">
-        <v>87</v>
-      </c>
-      <c r="N16">
-        <v>31</v>
-      </c>
-      <c r="O16" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="P16">
-        <v>35</v>
-      </c>
-      <c r="Q16" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R16" t="s">
-        <v>33</v>
-      </c>
-      <c r="S16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="16">
-        <v>-0.6</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17">
-        <v>30</v>
-      </c>
-      <c r="E17" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H17">
-        <v>40</v>
-      </c>
-      <c r="I17" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17">
-        <v>15</v>
-      </c>
-      <c r="K17" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17">
-        <v>999</v>
-      </c>
-      <c r="M17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="N17">
-        <v>31</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17">
-        <v>35</v>
-      </c>
-      <c r="Q17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="16">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18">
+      <c r="F21" s="2">
+        <v>4</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="2">
         <v>34</v>
       </c>
-      <c r="I18" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18">
-        <v>12</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18">
-        <v>26</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18">
-        <v>31</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="11">
-        <v>0</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="6">
-        <v>30</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="6">
-        <v>35</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="6">
-        <v>12</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="6">
-        <v>18</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N19" s="6">
-        <v>15</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P19" s="6">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="11">
-        <v>3</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="6">
-        <v>33</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F20" s="6">
-        <v>18</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H20" s="6">
-        <v>42</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="6">
-        <v>31</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" s="16">
-        <v>5</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21">
-        <v>20</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21">
-        <v>4</v>
-      </c>
-      <c r="G21" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21">
-        <v>34</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>87</v>
       </c>
       <c r="J21" s="2">
         <v>18</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>97</v>
+        <v>210</v>
       </c>
       <c r="L21" s="2">
         <v>999</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>98</v>
+      <c r="M21" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="N21" s="2">
+        <v>22</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P21" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2">
+        <v>30</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="2">
+        <v>35</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L22" s="2">
+        <v>28</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22" s="2">
+        <v>21</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P22" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="2">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="2">
+        <v>12</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="2">
+        <v>38</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="2">
+        <v>31</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="5">
         <v>4</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="P21" s="2">
+      <c r="C24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="2">
+        <v>999</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="2">
+        <v>30</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="2">
+        <v>30</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="2">
+        <v>19</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="2">
+        <v>50</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="2">
+        <v>15</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="2">
+        <v>30</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25" s="2">
+        <v>31</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="2">
+        <v>33</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="2">
+        <v>35</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="2">
+        <v>10</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L26" s="2">
+        <v>14</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26" s="2">
+        <v>31</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="2">
+        <v>32</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="2">
+        <v>35</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="2">
+        <v>31</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P27" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="2">
+        <v>12.2</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F28" s="2">
+        <v>17</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="2">
+        <v>35</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="2">
+        <v>31</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P28" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="11">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D29" s="2">
+        <v>999</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" s="2">
+        <v>35</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J29" s="2">
+        <v>10</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2">
+        <v>999</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="N29" s="2">
+        <v>31</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="5">
+        <v>-0.2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="2">
+        <v>3</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H30" s="2">
+        <v>35</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J30" s="2">
+        <v>4</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L30" s="2">
+        <v>23</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30" s="2">
+        <v>10</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P30" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="2">
+        <v>31</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="2">
+        <v>35</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="2">
+        <v>31</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D32" s="2">
+        <v>31</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="2">
+        <v>38</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J32" s="2">
+        <v>15</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="L32" s="2">
+        <v>25</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="N32" s="2">
         <v>20</v>
       </c>
-      <c r="Q21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="R21" t="s">
+      <c r="O32" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P32" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="5">
+        <v>-1.5</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F33" s="2">
+        <v>7</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="2">
+        <v>52</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="2">
+        <v>12</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P33" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="5">
+        <v>2</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D34" s="2">
+        <v>33</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="2">
+        <v>51</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="2">
+        <v>3</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" s="2">
+        <v>34</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="2">
+        <v>31</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D36" s="2">
+        <v>26</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="2">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="2">
+        <v>35</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="2">
+        <v>31</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" s="2">
+        <v>18</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="2">
+        <v>35</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="2">
+        <v>31</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P37" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="2">
+        <v>29</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F38" s="2">
+        <v>2</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="2">
+        <v>75</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J38" s="2">
+        <v>10</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L38" s="2">
+        <v>29</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N38" s="2">
+        <v>5</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P38" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="2">
+        <v>29</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F39" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="2">
+        <v>37</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="2">
+        <v>31</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P39" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" s="5">
+        <v>-0.7</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="2">
+        <v>28</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H40" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="J40" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L40" s="2">
+        <v>10</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="2" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="5">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D41" s="2">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F41" s="2">
+        <v>15</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H41" s="2">
+        <v>35</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="2">
+        <v>31</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="2">
+        <v>27</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="2">
+        <v>31</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P42" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B43" s="5">
+        <v>-2</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="2">
+        <v>27</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="2">
+        <v>18</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="2">
+        <v>35</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J43" s="2">
+        <v>15</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L43" s="2">
+        <v>999</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N43" s="2">
+        <v>20</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P43" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="R43" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="2">
+        <v>30</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H44" s="2">
+        <v>35</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J44" s="2">
+        <v>4</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="L44" s="2">
+        <v>33</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="N44" s="2">
+        <v>10</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P44" s="2">
+        <v>30</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="2">
+        <v>30</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" s="2">
+        <v>45</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J45" s="2">
+        <v>11</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L45" s="2">
+        <v>30</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N45" s="2">
+        <v>9</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P45" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="2">
+        <v>37</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="11">
-        <v>0</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="6">
+      <c r="I46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J46" s="2">
+        <v>18</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L46" s="2">
         <v>30</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22" s="6">
-        <v>35</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="6">
-        <v>16.5</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L22" s="6">
-        <v>28</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N22" s="6">
-        <v>21</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P22" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R22" s="6" t="s">
+      <c r="M46" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N46" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="11">
-        <v>-2</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="6">
-        <v>27</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="6">
-        <v>12</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H23" s="6">
-        <v>38</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="6">
+      <c r="O46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P46" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="5">
+        <v>6.7</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="2">
+        <v>30.6</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F47" s="2">
+        <v>25</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H47" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="2">
         <v>31</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P23" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="11">
-        <v>4</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D24" s="6">
-        <v>999</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="6">
-        <v>30</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="11">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="6">
-        <v>30</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="6">
-        <v>19</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="6">
-        <v>50</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J25" s="6">
-        <v>15</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L25" s="6">
-        <v>30</v>
-      </c>
-      <c r="M25" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N25" s="6">
-        <v>31</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P25" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R25" s="6" t="s">
+      <c r="O47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="P47" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="R47" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="11">
-        <v>0</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" s="6">
-        <v>33</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="6">
-        <v>2.5</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H26" s="6">
-        <v>35</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J26" s="6">
-        <v>10</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L26" s="6">
-        <v>14</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N26" s="6">
-        <v>31</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P26" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R26" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="11">
-        <v>0</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" s="6">
-        <v>32</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="6">
-        <v>35</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="6">
-        <v>31</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P27" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="16">
-        <v>-1.4</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28">
-        <v>12.2</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28">
-        <v>17</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28">
-        <v>35</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" t="s">
-        <v>21</v>
-      </c>
-      <c r="L28" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28">
-        <v>31</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P28" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="16">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29">
-        <v>999</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29">
-        <v>35</v>
-      </c>
-      <c r="I29" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J29">
-        <v>10</v>
-      </c>
-      <c r="K29" s="1"/>
-      <c r="L29">
-        <v>999</v>
-      </c>
-      <c r="M29" t="s">
-        <v>89</v>
-      </c>
-      <c r="N29">
-        <v>31</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P29" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="16">
-        <v>-0.2</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30">
-        <v>32.5</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30">
-        <v>35</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J30">
-        <v>4</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="L30">
-        <v>23</v>
-      </c>
-      <c r="M30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N30">
-        <v>10</v>
-      </c>
-      <c r="O30" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P30">
-        <v>35</v>
-      </c>
-      <c r="Q30" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F31" s="6">
-        <v>31</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" s="6">
-        <v>35</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="6">
-        <v>31</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P31" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R31" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="16">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32">
-        <v>31</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32">
-        <v>10</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32">
-        <v>38</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J32">
-        <v>15</v>
-      </c>
-      <c r="K32" s="1"/>
-      <c r="L32">
-        <v>25</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32">
-        <v>20</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32">
-        <v>38</v>
-      </c>
-      <c r="Q32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="16">
-        <v>-1.5</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D33">
-        <v>32.5</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F33">
-        <v>7</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33">
-        <v>52</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J33" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33">
-        <v>12</v>
-      </c>
-      <c r="O33" s="1"/>
-      <c r="P33">
-        <v>34</v>
-      </c>
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="16">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34">
-        <v>33</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34">
-        <v>0.7</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34">
-        <v>51</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J34" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="P34">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="6">
-        <v>31</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="16">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1"/>
-      <c r="D36">
-        <v>26</v>
-      </c>
-      <c r="E36" s="1"/>
-      <c r="F36">
-        <v>10</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H36">
-        <v>35</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J36" t="s">
-        <v>21</v>
-      </c>
-      <c r="L36" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="6">
-        <v>31</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P36" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" t="s">
-        <v>21</v>
-      </c>
-      <c r="F37">
-        <v>18</v>
-      </c>
-      <c r="G37" s="1"/>
-      <c r="H37">
-        <v>35</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" t="s">
-        <v>21</v>
-      </c>
-      <c r="L37" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>31</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P37" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38">
-        <v>29</v>
-      </c>
-      <c r="E38" t="s">
-        <v>87</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
-      <c r="G38" t="s">
-        <v>87</v>
-      </c>
-      <c r="H38">
-        <v>75</v>
-      </c>
-      <c r="I38" t="s">
-        <v>87</v>
-      </c>
-      <c r="J38">
-        <v>10</v>
-      </c>
-      <c r="K38" t="s">
-        <v>87</v>
-      </c>
-      <c r="L38">
-        <v>29</v>
-      </c>
-      <c r="M38" t="s">
-        <v>87</v>
-      </c>
-      <c r="N38">
-        <v>5</v>
-      </c>
-      <c r="O38" t="s">
-        <v>87</v>
-      </c>
-      <c r="P38">
-        <v>75</v>
-      </c>
-      <c r="Q38" s="1"/>
-    </row>
-    <row r="39" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="6">
-        <v>29</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F39" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="6">
-        <v>37</v>
-      </c>
-      <c r="I39" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L39" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" s="6">
-        <v>31</v>
-      </c>
-      <c r="O39" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P39" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q39" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="16">
-        <v>-0.7</v>
-      </c>
-      <c r="D40">
-        <v>28</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="J40">
-        <v>7.2</v>
-      </c>
-      <c r="L40">
-        <v>10</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="R40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="16">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <v>19</v>
-      </c>
-      <c r="F41">
-        <v>15</v>
-      </c>
-      <c r="H41">
-        <v>35</v>
-      </c>
-      <c r="J41" t="s">
-        <v>21</v>
-      </c>
-      <c r="L41" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41">
-        <v>31</v>
-      </c>
-      <c r="P41">
-        <v>35</v>
-      </c>
-      <c r="R41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>87</v>
-      </c>
-      <c r="D42">
-        <v>27</v>
-      </c>
-      <c r="E42" t="s">
-        <v>87</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H42">
-        <v>52</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J42" t="s">
-        <v>21</v>
-      </c>
-      <c r="L42" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42">
-        <v>31</v>
-      </c>
-      <c r="O42" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="P42">
-        <v>35</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" s="16">
-        <v>-2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43">
-        <v>27</v>
-      </c>
-      <c r="E43" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>87</v>
-      </c>
-      <c r="H43">
-        <v>35</v>
-      </c>
-      <c r="I43" t="s">
-        <v>87</v>
-      </c>
-      <c r="J43">
-        <v>15</v>
-      </c>
-      <c r="K43" t="s">
-        <v>87</v>
-      </c>
-      <c r="L43">
-        <v>999</v>
-      </c>
-      <c r="M43" t="s">
-        <v>105</v>
-      </c>
-      <c r="N43">
-        <v>20</v>
-      </c>
-      <c r="O43" s="1"/>
-      <c r="P43">
-        <v>35</v>
-      </c>
-      <c r="Q43" s="1"/>
-      <c r="S43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="16">
-        <v>0</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44">
-        <v>30</v>
-      </c>
-      <c r="E44" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44" t="s">
-        <v>87</v>
-      </c>
-      <c r="H44">
-        <v>35</v>
-      </c>
-      <c r="I44" t="s">
-        <v>87</v>
-      </c>
-      <c r="J44">
-        <v>4</v>
-      </c>
-      <c r="K44" s="1"/>
-      <c r="L44">
-        <v>33</v>
-      </c>
-      <c r="M44" s="1"/>
-      <c r="N44">
-        <v>10</v>
-      </c>
-      <c r="O44" s="1"/>
-      <c r="P44">
-        <v>30</v>
-      </c>
-      <c r="Q44" s="1"/>
-    </row>
-    <row r="45" spans="1:19" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="18">
-        <v>0</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="8">
-        <v>30</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="8">
-        <v>5</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="H45" s="8">
-        <v>45</v>
-      </c>
-      <c r="I45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J45" s="8">
-        <v>11</v>
-      </c>
-      <c r="K45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L45" s="8">
-        <v>30</v>
-      </c>
-      <c r="M45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="N45" s="8">
-        <v>9</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="P45" s="8">
-        <v>35</v>
-      </c>
-      <c r="Q45" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="R45" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B46" s="16">
-        <v>0</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46">
-        <v>37</v>
-      </c>
-      <c r="E46" t="s">
-        <v>87</v>
-      </c>
-      <c r="F46" s="2">
-        <v>12</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="H46">
-        <v>50</v>
-      </c>
-      <c r="I46" t="s">
-        <v>102</v>
-      </c>
-      <c r="J46">
-        <v>18</v>
-      </c>
-      <c r="K46" t="s">
-        <v>102</v>
-      </c>
-      <c r="L46" s="2">
-        <v>999</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N46">
-        <v>24</v>
-      </c>
-      <c r="O46" t="s">
-        <v>102</v>
-      </c>
-      <c r="P46">
-        <v>35</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="11">
-        <v>6.7</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="6">
-        <v>30.6</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F47" s="6">
-        <v>25</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H47" s="6">
-        <v>40</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="6">
-        <v>31</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="P47" s="6">
-        <v>35</v>
-      </c>
-      <c r="Q47" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="R47" s="6" t="s">
-        <v>33</v>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3638,10 +4015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3651,106 +4028,322 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
         <v>146</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>147</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>169</v>
+      </c>
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>197</v>
+      </c>
+      <c r="B37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>202</v>
+      </c>
+      <c r="B38" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/manuscript/appendixA.xlsx
+++ b/manuscript/appendixA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda_droghini/Documents/ACCS/Invasives/git_repo/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF3153C-4A5D-0145-95B5-17F79AA3B823}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B740E65-A590-DA4A-8508-82182BCFF114}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix-A" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="347">
   <si>
     <t>Sci_Name</t>
   </si>
@@ -1716,6 +1716,9 @@
       </rPr>
       <t xml:space="preserve"> If salinity requirements are unknown and the species can survive (or reproduce) in seawater, assume it can tolerate salinities up to 35 ppt. If lower limits are unknown but species is marine, assume it can tolerate salinities up to 31 ppt. </t>
     </r>
+  </si>
+  <si>
+    <t>Jensen 2010</t>
   </si>
 </sst>
 </file>
@@ -2284,13 +2287,13 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3038,7 +3041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
@@ -3060,41 +3063,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:12" s="13" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
@@ -4616,8 +4619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4795,7 +4798,9 @@
       </c>
     </row>
     <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="13" t="s">
+        <v>346</v>
+      </c>
       <c r="B22" s="19" t="s">
         <v>339</v>
       </c>

--- a/manuscript/appendixA.xlsx
+++ b/manuscript/appendixA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda_droghini/Documents/ACCS/Invasives/git_repo/manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B740E65-A590-DA4A-8508-82182BCFF114}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E57470-840F-AA4A-92BE-1EBDFAAF62E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix-A" sheetId="2" r:id="rId1"/>
@@ -3041,7 +3041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
@@ -4619,7 +4619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>

--- a/manuscript/appendixA.xlsx
+++ b/manuscript/appendixA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda_droghini/Documents/ACCS/Invasives/git_repo/manuscript/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adroghini\Documents\bering-invaders\manuscript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E57470-840F-AA4A-92BE-1EBDFAAF62E0}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="465" windowWidth="25605" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix-A" sheetId="2" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="345">
   <si>
     <t>Sci_Name</t>
   </si>
@@ -58,9 +57,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>Alosa sapidissima</t>
   </si>
   <si>
@@ -229,9 +225,6 @@
     <t>Turcotte and Sainte-Marie 2009</t>
   </si>
   <si>
-    <t>Minimum survival temperature based on this species' dormant state, which can tolerate temperatures as low as -10⁰C (Tyler-Walters and Pizzolla 2007).</t>
-  </si>
-  <si>
     <t>Arndt 1989</t>
   </si>
   <si>
@@ -496,9 +489,6 @@
     <t>0 (2)</t>
   </si>
   <si>
-    <t>-10 (1*)</t>
-  </si>
-  <si>
     <t>54 (1)</t>
   </si>
   <si>
@@ -523,13 +513,7 @@
     <t>25 (1)</t>
   </si>
   <si>
-    <t>28 (3)</t>
-  </si>
-  <si>
     <t>13 (1)</t>
-  </si>
-  <si>
-    <t>0.2 (3)</t>
   </si>
   <si>
     <t xml:space="preserve"> 35 (R2)</t>
@@ -1488,9 +1472,6 @@
     <t>1. Fofonoff et al. 2017; 2. Dawirs et al. 1986; 3. Hines et al. 2004; 4. Grosholz and Ruiz 2002</t>
   </si>
   <si>
-    <t>1. Tyler-Walters and Pizzolla 2007; 2. Fofonoff et al. 2017; 3. Arndt 1989</t>
-  </si>
-  <si>
     <t>1. Carrasco and Barón 2010; 2. Bourlès et al. 2009; 3. Fofonoff et al. 2017; 4. Mann et al. 1991</t>
   </si>
   <si>
@@ -1720,11 +1701,23 @@
   <si>
     <t>Jensen 2010</t>
   </si>
+  <si>
+    <t>1. Arndt 1989; 2. Fofonoff et al. 2017</t>
+  </si>
+  <si>
+    <t>Minimum survival temperature based on this species' dormant state.</t>
+  </si>
+  <si>
+    <t>0.2 (1)</t>
+  </si>
+  <si>
+    <t>-2 (1*)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2235,7 +2228,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2304,6 +2297,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2352,6 +2351,54 @@
   <dxfs count="17">
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -2360,7 +2407,20 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2375,22 +2435,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2409,7 +2453,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
     </dxf>
@@ -2427,7 +2470,198 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2452,32 +2686,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <fill>
@@ -2502,232 +2710,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2746,31 +2728,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2B1CF00F-EA81-E54E-8828-D03BBD01DD9C}" name="Table1" displayName="Table1" ref="A10:K52" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A10:K52" xr:uid="{399DEA7B-7937-EA4A-9DEB-E6A7BEFBCCAD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:K52" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A10:K52"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{49466354-9715-B945-AA31-168E0E34CDD0}" name="scientific_name" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{833D7D10-08DB-3345-AD32-523C7ED422C4}" name="survival_temp_min" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{9E396C7B-F868-9045-81A2-75241A44D547}" name="survival_temp_max" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{DAB90F78-5E6D-6D45-B7A9-BB916B4FB7AB}" name="survival_salinity_min" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{AFE09C98-A0B7-0E40-932D-B80AB8207538}" name="survival_salinity_max" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{CC482595-F34D-6548-A600-4C2E4AD33D52}" name="repro_temp_min" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{B2082858-0EAC-3543-9016-A07BB6E803CB}" name="repro_temp_max" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{9453ED14-C117-7F48-B495-122FFBFE1B14}" name="repro_salinity_min" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{AF9C7B02-8316-FB43-B43C-7D40754B4B86}" name="repro_salinity_max" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{B6BCFAB8-D42D-D44A-A39A-6B202F53A9BF}" name="Notes" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{A04241BA-AE7D-E940-8118-6C110222D419}" name="References" dataDxfId="4"/>
+    <tableColumn id="1" name="scientific_name" dataDxfId="14"/>
+    <tableColumn id="2" name="survival_temp_min" dataDxfId="13"/>
+    <tableColumn id="3" name="survival_temp_max" dataDxfId="12"/>
+    <tableColumn id="4" name="survival_salinity_min" dataDxfId="11"/>
+    <tableColumn id="5" name="survival_salinity_max" dataDxfId="10"/>
+    <tableColumn id="6" name="repro_temp_min" dataDxfId="9"/>
+    <tableColumn id="7" name="repro_temp_max" dataDxfId="8"/>
+    <tableColumn id="8" name="repro_salinity_min" dataDxfId="7"/>
+    <tableColumn id="9" name="repro_salinity_max" dataDxfId="6"/>
+    <tableColumn id="10" name="Notes" dataDxfId="1"/>
+    <tableColumn id="11" name="References" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{53F407E8-C71F-494B-AC3F-C1582F0BF2DC}" name="Table2" displayName="Table2" ref="A1:B45" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A1:B45" xr:uid="{5F6B1E5D-E905-3E43-85E0-E22DA49B90FA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B45" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:B45"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2B263269-00A0-0244-9D1A-8BDF2576C86C}" name="short_citation" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{3526B537-5404-3D42-A4AD-2A73CE23A7BE}" name="full_citation" dataDxfId="0"/>
+    <tableColumn id="1" name="short_citation" dataDxfId="3"/>
+    <tableColumn id="2" name="full_citation" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3038,33 +3020,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I6"/>
+    <sheetView showGridLines="0" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="91.6640625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="78.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="91.7109375" style="7" customWidth="1"/>
+    <col min="11" max="11" width="78.42578125" style="7" customWidth="1"/>
     <col min="12" max="19" width="53" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="5"/>
+    <col min="20" max="16384" width="8.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -3075,7 +3057,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
     </row>
-    <row r="2" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -3086,9 +3068,9 @@
       <c r="H2" s="22"/>
       <c r="I2" s="22"/>
     </row>
-    <row r="3" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3099,9 +3081,9 @@
       <c r="H3" s="21"/>
       <c r="I3" s="21"/>
     </row>
-    <row r="4" spans="1:12" s="13" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="13" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -3112,9 +3094,9 @@
       <c r="H4" s="23"/>
       <c r="I4" s="23"/>
     </row>
-    <row r="5" spans="1:12" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -3125,7 +3107,7 @@
       <c r="H5" s="23"/>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="1:12" s="13" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
@@ -3136,9 +3118,9 @@
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
     </row>
-    <row r="7" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -3149,7 +3131,7 @@
       <c r="H7" s="24"/>
       <c r="I7" s="24"/>
     </row>
-    <row r="8" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3159,1437 +3141,1434 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="10" spans="1:12" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>246</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>248</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>250</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="K11" s="16" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="G14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>342</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="J22" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="K22" s="17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J23" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="K23" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J24" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="K24" s="17" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="J27" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" s="17" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K28" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K31" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="K33" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K35" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K36" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K37" s="17" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J38" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="K38" s="17" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="17" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="K41" s="17" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="9" t="s">
+      <c r="D42" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K42" s="17" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J43" s="17" t="s">
+        <v>256</v>
+      </c>
+      <c r="K43" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K44" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="E45" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J45" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="K45" s="17" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="E46" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="J46" s="17" t="s">
+        <v>258</v>
+      </c>
+      <c r="K46" s="17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="15" t="s">
+      <c r="C47" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K47" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="J48" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="K48" s="17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="K49" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K50" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="K51" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="F52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I52" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="J21" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" s="17" t="s">
-        <v>322</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J24" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="17" t="s">
-        <v>259</v>
-      </c>
-      <c r="K27" s="12" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K28" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K29" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="J30" s="17" t="s">
-        <v>311</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A33" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>313</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A38" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="I42" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>261</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A45" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>227</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="J45" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A46" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K52" s="17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -4616,377 +4595,377 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="178" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="178" style="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="18" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="B16" s="19" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B29" s="13" t="s">
+      <c r="B44" s="19" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+    <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" s="19" t="s">
         <v>332</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -5001,28 +4980,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32858B08-0C03-A143-AEEF-DD97E8F55B9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16" width="53" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="3"/>
+    <col min="17" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -5051,9 +5030,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1">
         <v>2</v>
@@ -5080,9 +5059,9 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -5109,9 +5088,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>-2</v>
@@ -5138,9 +5117,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4">
         <v>-2</v>
@@ -5155,21 +5134,21 @@
         <v>33</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4">
         <v>-0.6</v>
@@ -5196,9 +5175,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="4">
         <v>-1</v>
@@ -5225,9 +5204,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>2</v>
@@ -5254,9 +5233,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4">
         <v>-2</v>
@@ -5283,9 +5262,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4">
         <v>-1</v>
@@ -5312,9 +5291,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="4">
         <v>-1.7</v>
@@ -5341,9 +5320,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4">
         <v>-10</v>
@@ -5370,9 +5349,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="4">
         <v>-1.9</v>
@@ -5399,9 +5378,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4">
         <v>10</v>
@@ -5428,9 +5407,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4">
         <v>0</v>
@@ -5445,10 +5424,10 @@
         <v>74</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H15" s="3">
         <v>7</v>
@@ -5457,9 +5436,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="4">
         <v>-2</v>
@@ -5486,9 +5465,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="4">
         <v>-0.6</v>
@@ -5515,9 +5494,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B18" s="4">
         <v>0</v>
@@ -5544,9 +5523,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B19" s="4">
         <v>0</v>
@@ -5573,9 +5552,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4">
         <v>3</v>
@@ -5590,10 +5569,10 @@
         <v>42</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H20" s="3">
         <v>31</v>
@@ -5602,9 +5581,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4">
         <v>5</v>
@@ -5631,9 +5610,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" s="4">
         <v>0</v>
@@ -5660,9 +5639,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="4">
         <v>-2</v>
@@ -5677,10 +5656,10 @@
         <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H23" s="3">
         <v>31</v>
@@ -5689,9 +5668,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4">
         <v>4</v>
@@ -5706,21 +5685,21 @@
         <v>30</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
@@ -5747,9 +5726,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B26" s="4">
         <v>0</v>
@@ -5776,9 +5755,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B27" s="4">
         <v>0</v>
@@ -5793,10 +5772,10 @@
         <v>35</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H27" s="3">
         <v>31</v>
@@ -5805,9 +5784,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4">
         <v>-1.4</v>
@@ -5822,10 +5801,10 @@
         <v>35</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H28" s="3">
         <v>31</v>
@@ -5834,9 +5813,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4">
         <v>5</v>
@@ -5863,9 +5842,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B30" s="4">
         <v>-0.2</v>
@@ -5892,9 +5871,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B31" s="4">
         <v>7</v>
@@ -5921,9 +5900,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="4">
         <v>-1.5</v>
@@ -5938,10 +5917,10 @@
         <v>52</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H32" s="3">
         <v>12</v>
@@ -5950,9 +5929,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4">
         <v>2</v>
@@ -5967,10 +5946,10 @@
         <v>51</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H33" s="3">
         <v>3</v>
@@ -5979,9 +5958,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="4">
         <v>1</v>
@@ -5996,10 +5975,10 @@
         <v>35</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" s="3">
         <v>31</v>
@@ -6008,9 +5987,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4">
         <v>-2</v>
@@ -6037,9 +6016,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4">
         <v>-0.7</v>
@@ -6066,9 +6045,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="4">
         <v>7</v>
@@ -6083,10 +6062,10 @@
         <v>35</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H37" s="3">
         <v>31</v>
@@ -6095,9 +6074,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4">
         <v>-2</v>
@@ -6112,10 +6091,10 @@
         <v>36.5</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H38" s="3">
         <v>31</v>
@@ -6124,9 +6103,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4">
         <v>-2</v>
@@ -6153,9 +6132,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4">
         <v>0</v>
@@ -6182,9 +6161,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -6211,9 +6190,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -6240,9 +6219,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B43" s="4">
         <v>6.7</v>
@@ -6257,10 +6236,10 @@
         <v>40</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H43" s="3">
         <v>31</v>

--- a/manuscript/appendixA.xlsx
+++ b/manuscript/appendixA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="465" windowWidth="25605" windowHeight="15540" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="465" windowWidth="25605" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix-A" sheetId="2" r:id="rId1"/>
@@ -2288,6 +2288,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2296,12 +2302,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2351,6 +2351,65 @@
   <dxfs count="17">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2399,65 +2458,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2729,7 +2729,18 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:K52" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A10:K52"/>
+  <autoFilter ref="A10:K52">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="3 (1)"/>
+        <filter val="4 (1)"/>
+        <filter val="5 (1*)"/>
+        <filter val="5 (1,2*)"/>
+        <filter val="6.7 (1)"/>
+        <filter val="7 (1)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" name="scientific_name" dataDxfId="14"/>
     <tableColumn id="2" name="survival_temp_min" dataDxfId="13"/>
@@ -2740,19 +2751,19 @@
     <tableColumn id="7" name="repro_temp_max" dataDxfId="8"/>
     <tableColumn id="8" name="repro_salinity_min" dataDxfId="7"/>
     <tableColumn id="9" name="repro_salinity_max" dataDxfId="6"/>
-    <tableColumn id="10" name="Notes" dataDxfId="1"/>
-    <tableColumn id="11" name="References" dataDxfId="0"/>
+    <tableColumn id="10" name="Notes" dataDxfId="5"/>
+    <tableColumn id="11" name="References" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B45" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:B45" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B45"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="short_citation" dataDxfId="3"/>
-    <tableColumn id="2" name="full_citation" dataDxfId="2"/>
+    <tableColumn id="1" name="short_citation" dataDxfId="1"/>
+    <tableColumn id="2" name="full_citation" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3023,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3045,17 +3056,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>337</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
@@ -3082,54 +3093,54 @@
       <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:11" s="13" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:11" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:11" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
     </row>
     <row r="7" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
@@ -3176,12 +3187,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>105</v>
@@ -3211,7 +3222,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -3246,7 +3257,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -3278,7 +3289,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -3310,7 +3321,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -3345,7 +3356,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -3377,7 +3388,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -3409,7 +3420,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -3441,7 +3452,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -3476,7 +3487,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -3508,7 +3519,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -3543,7 +3554,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
@@ -3578,7 +3589,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
@@ -3613,7 +3624,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
@@ -3648,7 +3659,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
@@ -3680,7 +3691,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
@@ -3712,7 +3723,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
@@ -3747,7 +3758,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
@@ -3846,7 +3857,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
@@ -3878,7 +3889,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>32</v>
       </c>
@@ -3945,7 +3956,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>34</v>
       </c>
@@ -3977,7 +3988,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>35</v>
       </c>
@@ -4009,7 +4020,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>36</v>
       </c>
@@ -4041,7 +4052,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>37</v>
       </c>
@@ -4108,7 +4119,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>39</v>
       </c>
@@ -4172,7 +4183,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
@@ -4204,7 +4215,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>42</v>
       </c>
@@ -4236,7 +4247,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>43</v>
       </c>
@@ -4271,7 +4282,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -4303,7 +4314,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>45</v>
       </c>
@@ -4373,7 +4384,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>47</v>
       </c>
@@ -4405,7 +4416,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
@@ -4440,7 +4451,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
@@ -4472,7 +4483,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
@@ -4504,7 +4515,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>51</v>
       </c>
@@ -4598,21 +4609,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="178" style="27" customWidth="1"/>
+    <col min="2" max="2" width="178" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4984,7 +4995,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5325,7 +5336,7 @@
         <v>21</v>
       </c>
       <c r="B12" s="4">
-        <v>-10</v>
+        <v>-2</v>
       </c>
       <c r="C12" s="3">
         <v>35</v>

--- a/manuscript/appendixA.xlsx
+++ b/manuscript/appendixA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="465" windowWidth="25605" windowHeight="15540"/>
+    <workbookView xWindow="3510" yWindow="465" windowWidth="25605" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix-A" sheetId="2" r:id="rId1"/>
@@ -2729,18 +2729,6 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:K52" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A10:K52">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="3 (1)"/>
-        <filter val="4 (1)"/>
-        <filter val="5 (1*)"/>
-        <filter val="5 (1,2*)"/>
-        <filter val="6.7 (1)"/>
-        <filter val="7 (1)"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <tableColumns count="11">
     <tableColumn id="1" name="scientific_name" dataDxfId="14"/>
     <tableColumn id="2" name="survival_temp_min" dataDxfId="13"/>
@@ -3034,21 +3022,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="18.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="91.7109375" style="7" customWidth="1"/>
     <col min="11" max="11" width="78.42578125" style="7" customWidth="1"/>
     <col min="12" max="19" width="53" style="5" customWidth="1"/>
@@ -3187,7 +3175,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
@@ -3222,7 +3210,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="12" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>12</v>
       </c>
@@ -3257,7 +3245,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>13</v>
       </c>
@@ -3289,7 +3277,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>14</v>
       </c>
@@ -3321,7 +3309,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="12" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>15</v>
       </c>
@@ -3356,7 +3344,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>16</v>
       </c>
@@ -3388,7 +3376,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>17</v>
       </c>
@@ -3420,7 +3408,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
@@ -3452,7 +3440,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>19</v>
       </c>
@@ -3487,7 +3475,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>20</v>
       </c>
@@ -3519,7 +3507,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
@@ -3554,7 +3542,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" ht="71.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>22</v>
       </c>
@@ -3589,7 +3577,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>23</v>
       </c>
@@ -3624,7 +3612,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>24</v>
       </c>
@@ -3659,7 +3647,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>25</v>
       </c>
@@ -3691,7 +3679,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>26</v>
       </c>
@@ -3723,7 +3711,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>27</v>
       </c>
@@ -3758,7 +3746,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>28</v>
       </c>
@@ -3857,7 +3845,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
@@ -3889,7 +3877,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>32</v>
       </c>
@@ -3956,7 +3944,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>34</v>
       </c>
@@ -3988,7 +3976,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>35</v>
       </c>
@@ -4020,7 +4008,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>36</v>
       </c>
@@ -4052,7 +4040,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>37</v>
       </c>
@@ -4119,7 +4107,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>39</v>
       </c>
@@ -4183,7 +4171,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
@@ -4215,7 +4203,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>42</v>
       </c>
@@ -4247,7 +4235,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>43</v>
       </c>
@@ -4282,7 +4270,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -4314,7 +4302,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>45</v>
       </c>
@@ -4384,7 +4372,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>47</v>
       </c>
@@ -4416,7 +4404,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
@@ -4451,7 +4439,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
@@ -4483,7 +4471,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>50</v>
       </c>
@@ -4515,7 +4503,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="12" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>51</v>
       </c>

--- a/manuscript/appendixA.xlsx
+++ b/manuscript/appendixA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="465" windowWidth="25605" windowHeight="15540"/>
+    <workbookView xWindow="8190" yWindow="465" windowWidth="25605" windowHeight="15540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Appendix-A" sheetId="2" r:id="rId1"/>
@@ -18,14 +18,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Appendix-A'!$A$10:$L$53</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tolerances-for-R'!$A$1:$S$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tolerances-for-R'!$A$1:$I$43</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="346">
   <si>
     <t>Sci_Name</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Hediste diadroma</t>
   </si>
   <si>
-    <t>Ilyanassa obsoleta</t>
-  </si>
-  <si>
     <t>Jassa marmorata</t>
   </si>
   <si>
@@ -297,9 +294,6 @@
     <t>Holm et al. 2000</t>
   </si>
   <si>
-    <t xml:space="preserve">Optimal spawning temperatures are from 7.2°C to 10°C. While spawning can likely take place within a broader temperature range, input values will not affect final model result, since the Atlantic salmon requires freshwater to spawn and such conditions are not found in the Bering Sea. </t>
-  </si>
-  <si>
     <t>Fuller et al. 2018</t>
   </si>
   <si>
@@ -781,9 +775,6 @@
   </si>
   <si>
     <t>While larvae can tolerate temperatures as low as 5°C, juvenile colonies grown under laboratory conditions required temperatures between 15-25°C to grow (Epelbaum et al. 2009).</t>
-  </si>
-  <si>
-    <t>Maximum survival temperature and minimum salinity are absolute values from Greene et al. 2009 Table 2-3. Maximum reproductive salinity is for larval tolerance to saltwater: "In the Shubenacadie River, Canada, eggs and larvae were most often observed in areas with a salinity of 0 ppt (range 0 to 7.6 ppt). Additionally, while larvae may tolerate salinities as high as 15 ppt, these conditions often result in death" (Green et al. 2009, p. 19).</t>
   </si>
   <si>
     <t xml:space="preserve">In its introduced range, this species is only known to reproduce asexually. Temperature requirements for asexual reproduction are unknown. Asexual reproduction stopped at salinities below 7 ppt. </t>
@@ -1705,13 +1696,79 @@
     <t>1. Arndt 1989; 2. Fofonoff et al. 2017</t>
   </si>
   <si>
-    <t>Minimum survival temperature based on this species' dormant state.</t>
-  </si>
-  <si>
     <t>0.2 (1)</t>
   </si>
   <si>
     <t>-2 (1*)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Excluded from reproduction analysis (requires salinity &lt;30ppt).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Minimum survival temperature based on this species' dormant state.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Excluded from reproduction analysis (requires salinity &lt;30ppt).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Maximum survival temperature and minimum salinity are absolute values from Greene et al. 2009 Table 2-3. Maximum reproductive salinity is for larval tolerance to saltwater: "In the Shubenacadie River, Canada, eggs and larvae were most often observed in areas with a salinity of 0 ppt (range 0 to 7.6 ppt). Additionally, while larvae may tolerate salinities as high as 15 ppt, these conditions often result in death" (Green et al. 2009, p. 19).</t>
+    </r>
+  </si>
+  <si>
+    <t>Excluded from reproduction analysis (requires salinity &lt;30ppt).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Excluded from reproduction analysis (requires salinity &lt;30ppt). </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Optimal spawning temperatures are from 7.2°C to 10°C. While spawning can likely take place within a broader temperature range, input values will not affect final model result, since the Atlantic salmon requires freshwater to spawn and such conditions are not found in the Bering Sea. </t>
+    </r>
+  </si>
+  <si>
+    <t>Tritia obsoleta</t>
   </si>
 </sst>
 </file>
@@ -2228,7 +2285,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2294,6 +2351,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2729,6 +2789,9 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A10:K52" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <sortState ref="A11:K52">
+    <sortCondition ref="A11:A52"/>
+  </sortState>
   <tableColumns count="11">
     <tableColumn id="1" name="scientific_name" dataDxfId="14"/>
     <tableColumn id="2" name="survival_temp_min" dataDxfId="13"/>
@@ -3022,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11:I51"/>
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3044,17 +3107,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
-        <v>337</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="A1" s="28" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
     </row>
     <row r="2" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="22"/>
@@ -3069,7 +3132,7 @@
     </row>
     <row r="3" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -3081,54 +3144,54 @@
       <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:11" s="13" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
     </row>
     <row r="5" spans="1:11" s="13" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>339</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
+      <c r="A5" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
     </row>
     <row r="6" spans="1:11" s="13" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
+      <c r="A7" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
@@ -3142,72 +3205,72 @@
     </row>
     <row r="10" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="E10" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="F10" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="H10" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="I10" s="14" t="s">
         <v>244</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>245</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>246</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="86.25" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="J11" s="16" t="s">
-        <v>252</v>
+        <v>342</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3215,34 +3278,34 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="I12" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J12" s="17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3250,31 +3313,31 @@
         <v>13</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="I13" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K13" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3282,16 +3345,16 @@
         <v>14</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C14" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="D14" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>11</v>
@@ -3306,7 +3369,7 @@
         <v>11</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3314,34 +3377,34 @@
         <v>15</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="H15" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="G15" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>134</v>
-      </c>
       <c r="J15" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K15" s="17" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3349,31 +3412,31 @@
         <v>16</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="H16" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="K16" s="17" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3381,31 +3444,31 @@
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C17" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="G17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="I17" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,31 +3476,31 @@
         <v>18</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="F18" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="H18" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>140</v>
-      </c>
       <c r="K18" s="17" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
@@ -3445,34 +3508,34 @@
         <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G19" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>162</v>
-      </c>
       <c r="I19" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="J19" s="17" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K19" s="17" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3480,66 +3543,66 @@
         <v>20</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>157</v>
-      </c>
       <c r="G20" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>163</v>
-      </c>
       <c r="K20" s="17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K21" s="17" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
@@ -3547,34 +3610,34 @@
         <v>22</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E22" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>176</v>
-      </c>
       <c r="J22" s="17" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K22" s="17" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
@@ -3582,34 +3645,34 @@
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F23" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>179</v>
-      </c>
       <c r="I23" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K23" s="17" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
@@ -3617,16 +3680,16 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>11</v>
@@ -3635,16 +3698,16 @@
         <v>11</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="J24" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K24" s="17" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3652,31 +3715,31 @@
         <v>25</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K25" s="17" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3684,31 +3747,31 @@
         <v>26</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D26" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>144</v>
-      </c>
       <c r="I26" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K26" s="17" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
@@ -3716,34 +3779,34 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D27" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="G27" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>184</v>
-      </c>
       <c r="J27" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K27" s="17" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3751,31 +3814,34 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
+      </c>
+      <c r="J28" s="25" t="s">
+        <v>343</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3783,16 +3849,16 @@
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>11</v>
@@ -3801,13 +3867,13 @@
         <v>11</v>
       </c>
       <c r="H29" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K29" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
@@ -3815,83 +3881,83 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="I30" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J30" s="17" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="K30" s="17" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="9" t="s">
-        <v>112</v>
+      <c r="B31" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>123</v>
+        <v>155</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="F31" s="9" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K31" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="15" t="s">
-        <v>120</v>
+      <c r="B32" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>151</v>
+        <v>252</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>11</v>
@@ -3900,48 +3966,48 @@
         <v>11</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>140</v>
+        <v>11</v>
+      </c>
+      <c r="J32" s="17" t="s">
+        <v>304</v>
       </c>
       <c r="K32" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>255</v>
+        <v>122</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>307</v>
+        <v>138</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="34" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3949,31 +4015,31 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>124</v>
-      </c>
       <c r="D34" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K34" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3981,48 +4047,48 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>196</v>
+        <v>110</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>123</v>
+        <v>11</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>136</v>
+        <v>11</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K35" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>112</v>
+      <c r="B36" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>112</v>
+        <v>198</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>11</v>
@@ -4031,176 +4097,176 @@
         <v>11</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K36" s="17" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="15" t="s">
-        <v>198</v>
+      <c r="B37" s="9" t="s">
+        <v>324</v>
       </c>
       <c r="C37" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="F37" s="9" t="s">
-        <v>11</v>
+        <v>326</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
+      </c>
+      <c r="J37" s="17" t="s">
+        <v>325</v>
       </c>
       <c r="K37" s="17" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="12" customFormat="1" ht="71.25" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>327</v>
+      <c r="B38" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>201</v>
+        <v>154</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>329</v>
+        <v>203</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>139</v>
+        <v>204</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J38" s="17" t="s">
-        <v>328</v>
+        <v>154</v>
       </c>
       <c r="K38" s="17" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>202</v>
+      <c r="B39" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>170</v>
+        <v>116</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="K39" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="40" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="9" t="s">
-        <v>126</v>
+      <c r="B40" s="15" t="s">
+        <v>207</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>131</v>
+        <v>210</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>133</v>
+        <v>11</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="K40" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="41" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>126</v>
-      </c>
       <c r="E41" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>183</v>
-      </c>
       <c r="I41" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K41" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="42" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4208,16 +4274,16 @@
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>125</v>
+        <v>215</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>107</v>
+        <v>216</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>211</v>
+        <v>156</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>11</v>
@@ -4226,48 +4292,48 @@
         <v>11</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>214</v>
+        <v>142</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>215</v>
+        <v>138</v>
+      </c>
+      <c r="J42" s="17" t="s">
+        <v>253</v>
       </c>
       <c r="K42" s="17" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="D43" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>201</v>
-      </c>
       <c r="F43" s="9" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>11</v>
+        <v>217</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>144</v>
+        <v>219</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J43" s="17" t="s">
-        <v>256</v>
+        <v>138</v>
       </c>
       <c r="K43" s="17" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4275,83 +4341,86 @@
         <v>44</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>219</v>
+        <v>143</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F44" s="9" t="s">
-        <v>123</v>
+        <v>223</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="J44" s="17" t="s">
+        <v>344</v>
       </c>
       <c r="K44" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="15" t="s">
-        <v>222</v>
+      <c r="B45" s="9" t="s">
+        <v>124</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="J45" s="17" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="K45" s="17" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" s="12" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>126</v>
+      <c r="B46" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>11</v>
@@ -4360,16 +4429,13 @@
         <v>11</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="J46" s="17" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
       <c r="K46" s="17" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4377,66 +4443,66 @@
         <v>47</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>230</v>
+        <v>148</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>144</v>
+        <v>234</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>140</v>
+        <v>235</v>
+      </c>
+      <c r="J47" s="17" t="s">
+        <v>97</v>
       </c>
       <c r="K47" s="17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" s="12" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="15" t="s">
-        <v>120</v>
+      <c r="B48" s="9" t="s">
+        <v>110</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>139</v>
+        <v>105</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="J48" s="17" t="s">
-        <v>99</v>
+        <v>232</v>
       </c>
       <c r="K48" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="49" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,112 +4510,112 @@
         <v>49</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>150</v>
+        <v>229</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="H49" s="9" t="s">
-        <v>170</v>
+        <v>233</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>234</v>
+        <v>138</v>
       </c>
       <c r="K49" s="17" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
-        <v>50</v>
+        <v>345</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>231</v>
+        <v>148</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>235</v>
+        <v>102</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K50" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H51" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K51" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="52" spans="1:11" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>11</v>
@@ -4558,13 +4624,13 @@
         <v>11</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K52" s="17" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="53" spans="1:11" s="13" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4609,362 +4675,362 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>66</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>284</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>85</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>83</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4982,8 +5048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5045,17 +5111,17 @@
       <c r="E2" s="1">
         <v>33</v>
       </c>
-      <c r="F2" s="1">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>7.6</v>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -5335,17 +5401,17 @@
       <c r="E12" s="3">
         <v>35</v>
       </c>
-      <c r="F12" s="3">
-        <v>10</v>
-      </c>
-      <c r="G12" s="3">
-        <v>28</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="I12" s="3">
-        <v>27</v>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -5538,17 +5604,17 @@
       <c r="E19" s="3">
         <v>35</v>
       </c>
-      <c r="F19" s="3">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3">
-        <v>18</v>
-      </c>
-      <c r="H19" s="3">
-        <v>15</v>
-      </c>
-      <c r="I19" s="3">
-        <v>25</v>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -5614,25 +5680,25 @@
         <v>31</v>
       </c>
       <c r="B22" s="4">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C22" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22" s="3">
-        <v>35</v>
-      </c>
-      <c r="F22" s="3">
-        <v>16.5</v>
-      </c>
-      <c r="G22" s="3">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H22" s="3">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I22" s="3">
         <v>35</v>
@@ -5643,16 +5709,16 @@
         <v>32</v>
       </c>
       <c r="B23" s="4">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>27</v>
+        <v>999</v>
       </c>
       <c r="D23" s="3">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>11</v>
@@ -5660,11 +5726,11 @@
       <c r="G23" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="3">
-        <v>31</v>
-      </c>
-      <c r="I23" s="3">
-        <v>35</v>
+      <c r="H23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -5672,28 +5738,28 @@
         <v>33</v>
       </c>
       <c r="B24" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C24" s="3">
-        <v>999</v>
+        <v>30</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E24" s="3">
+        <v>50</v>
+      </c>
+      <c r="F24" s="3">
+        <v>15</v>
+      </c>
+      <c r="G24" s="3">
         <v>30</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>11</v>
+      <c r="H24" s="3">
+        <v>31</v>
+      </c>
+      <c r="I24" s="3">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -5701,22 +5767,22 @@
         <v>34</v>
       </c>
       <c r="B25" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25" s="3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3">
-        <v>19</v>
+        <v>2.5</v>
       </c>
       <c r="E25" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="H25" s="3">
         <v>31</v>
@@ -5733,19 +5799,19 @@
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>35</v>
       </c>
-      <c r="F26" s="3">
-        <v>10</v>
-      </c>
-      <c r="G26" s="3">
-        <v>14</v>
+      <c r="F26" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H26" s="3">
         <v>31</v>
@@ -5759,13 +5825,13 @@
         <v>36</v>
       </c>
       <c r="B27" s="4">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="C27" s="3">
-        <v>32</v>
+        <v>12.2</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E27" s="3">
         <v>35</v>
@@ -5788,22 +5854,22 @@
         <v>37</v>
       </c>
       <c r="B28" s="4">
-        <v>-1.4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="3">
-        <v>12.2</v>
+        <v>999</v>
       </c>
       <c r="D28" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E28" s="3">
         <v>35</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>11</v>
+      <c r="F28" s="3">
+        <v>10</v>
+      </c>
+      <c r="G28" s="3">
+        <v>999</v>
       </c>
       <c r="H28" s="3">
         <v>31</v>
@@ -5817,25 +5883,25 @@
         <v>38</v>
       </c>
       <c r="B29" s="4">
-        <v>5</v>
+        <v>-0.2</v>
       </c>
       <c r="C29" s="3">
-        <v>999</v>
+        <v>32.5</v>
       </c>
       <c r="D29" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E29" s="3">
         <v>35</v>
       </c>
       <c r="F29" s="3">
+        <v>4</v>
+      </c>
+      <c r="G29" s="3">
+        <v>23</v>
+      </c>
+      <c r="H29" s="3">
         <v>10</v>
-      </c>
-      <c r="G29" s="3">
-        <v>999</v>
-      </c>
-      <c r="H29" s="3">
-        <v>31</v>
       </c>
       <c r="I29" s="3">
         <v>35</v>
@@ -5846,28 +5912,28 @@
         <v>39</v>
       </c>
       <c r="B30" s="4">
-        <v>-0.2</v>
+        <v>7</v>
       </c>
       <c r="C30" s="3">
-        <v>32.5</v>
+        <v>31</v>
       </c>
       <c r="D30" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E30" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F30" s="3">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="G30" s="3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H30" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I30" s="3">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -5875,28 +5941,28 @@
         <v>40</v>
       </c>
       <c r="B31" s="4">
+        <v>-1.5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>32.5</v>
+      </c>
+      <c r="D31" s="3">
         <v>7</v>
       </c>
-      <c r="C31" s="3">
-        <v>31</v>
-      </c>
-      <c r="D31" s="3">
-        <v>10</v>
-      </c>
       <c r="E31" s="3">
-        <v>38</v>
-      </c>
-      <c r="F31" s="3">
-        <v>15</v>
-      </c>
-      <c r="G31" s="3">
-        <v>25</v>
+        <v>52</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H31" s="3">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I31" s="3">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -5904,16 +5970,16 @@
         <v>41</v>
       </c>
       <c r="B32" s="4">
-        <v>-1.5</v>
+        <v>2</v>
       </c>
       <c r="C32" s="3">
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="D32" s="3">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="E32" s="3">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>11</v>
@@ -5922,7 +5988,7 @@
         <v>11</v>
       </c>
       <c r="H32" s="3">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I32" s="3">
         <v>34</v>
@@ -5933,16 +5999,16 @@
         <v>42</v>
       </c>
       <c r="B33" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33" s="3">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D33" s="3">
-        <v>0.7</v>
+        <v>10</v>
       </c>
       <c r="E33" s="3">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>11</v>
@@ -5951,10 +6017,10 @@
         <v>11</v>
       </c>
       <c r="H33" s="3">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I33" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -5962,25 +6028,25 @@
         <v>43</v>
       </c>
       <c r="B34" s="4">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C34" s="3">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D34" s="3">
+        <v>2</v>
+      </c>
+      <c r="E34" s="3">
+        <v>75</v>
+      </c>
+      <c r="F34" s="3">
         <v>10</v>
       </c>
-      <c r="E34" s="3">
-        <v>35</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>11</v>
+      <c r="G34" s="3">
+        <v>29</v>
       </c>
       <c r="H34" s="3">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="I34" s="3">
         <v>35</v>
@@ -5991,28 +6057,28 @@
         <v>44</v>
       </c>
       <c r="B35" s="4">
-        <v>-2</v>
+        <v>-0.7</v>
       </c>
       <c r="C35" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
-        <v>75</v>
-      </c>
-      <c r="F35" s="3">
-        <v>10</v>
-      </c>
-      <c r="G35" s="3">
-        <v>29</v>
-      </c>
-      <c r="H35" s="3">
-        <v>5</v>
-      </c>
-      <c r="I35" s="3">
-        <v>35</v>
+        <v>35.299999999999997</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -6020,28 +6086,28 @@
         <v>45</v>
       </c>
       <c r="B36" s="4">
-        <v>-0.7</v>
+        <v>7</v>
       </c>
       <c r="C36" s="3">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D36" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E36" s="3">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="F36" s="3">
-        <v>7.2</v>
-      </c>
-      <c r="G36" s="3">
-        <v>10</v>
+        <v>35</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="H36" s="3">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I36" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -6049,16 +6115,16 @@
         <v>46</v>
       </c>
       <c r="B37" s="4">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="C37" s="3">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D37" s="3">
-        <v>15</v>
+        <v>3.7</v>
       </c>
       <c r="E37" s="3">
-        <v>35</v>
+        <v>36.5</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>11</v>
@@ -6084,19 +6150,19 @@
         <v>27</v>
       </c>
       <c r="D38" s="3">
-        <v>3.7</v>
+        <v>18</v>
       </c>
       <c r="E38" s="3">
-        <v>36.5</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="F38" s="3">
+        <v>15</v>
+      </c>
+      <c r="G38" s="3">
+        <v>999</v>
       </c>
       <c r="H38" s="3">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I38" s="3">
         <v>35</v>
@@ -6107,28 +6173,28 @@
         <v>48</v>
       </c>
       <c r="B39" s="4">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="C39" s="3">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D39" s="3">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E39" s="3">
         <v>35</v>
       </c>
       <c r="F39" s="3">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G39" s="3">
-        <v>999</v>
+        <v>33</v>
       </c>
       <c r="H39" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I39" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -6142,27 +6208,27 @@
         <v>30</v>
       </c>
       <c r="D40" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40" s="3">
+        <v>45</v>
+      </c>
+      <c r="F40" s="3">
+        <v>11</v>
+      </c>
+      <c r="G40" s="3">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3">
+        <v>9</v>
+      </c>
+      <c r="I40" s="3">
         <v>35</v>
-      </c>
-      <c r="F40" s="3">
-        <v>4</v>
-      </c>
-      <c r="G40" s="3">
-        <v>33</v>
-      </c>
-      <c r="H40" s="3">
-        <v>10</v>
-      </c>
-      <c r="I40" s="3">
-        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>345</v>
       </c>
       <c r="B41" s="4">
         <v>0</v>
@@ -6171,19 +6237,19 @@
         <v>30</v>
       </c>
       <c r="D41" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E41" s="3">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F41" s="3">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="G41" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H41" s="3">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="I41" s="3">
         <v>35</v>
@@ -6191,7 +6257,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4">
         <v>0</v>
@@ -6220,7 +6286,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="4">
         <v>6.7</v>
@@ -6248,6 +6314,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:P43">
+    <sortCondition ref="A2:A43"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="599" r:id="rId1"/>
 </worksheet>
